--- a/仕様書/分割/分割-カメラワーク.xlsx
+++ b/仕様書/分割/分割-カメラワーク.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A2769F-B228-44C4-B817-C00B34B31B11}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DADE5633-2C4B-4D61-B106-8F5F4142F282}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
   <si>
     <t>更新履歴</t>
     <rPh sb="0" eb="2">
@@ -35,18 +35,18 @@
     <rPh sb="2" eb="4">
       <t>リレキ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>ページ</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>説明</t>
     <rPh sb="0" eb="2">
       <t>セツメイ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>日付</t>
@@ -56,11 +56,11 @@
     <rPh sb="1" eb="2">
       <t>ツ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>モーションリスト</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>モーションリストの追加と統合</t>
@@ -70,14 +70,14 @@
     <rPh sb="12" eb="14">
       <t>トウゴウ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>目録</t>
     <rPh sb="0" eb="2">
       <t>モクロク</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>目録の追加</t>
@@ -87,11 +87,11 @@
     <rPh sb="3" eb="5">
       <t>ツイカ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>ギミック</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>特殊ギミック以外のギミックを具体的な説明を修正</t>
@@ -104,14 +104,14 @@
     <rPh sb="21" eb="23">
       <t>シュウセイ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>操作仕様</t>
     <rPh sb="0" eb="4">
       <t>ソウサシヨウ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>「ギミックの操作（方向選ぶタイプ）」を消して、「発動後のギミック操作（方向選択）」に変更した。ギミックの操作の5とP.S.を修正した</t>
@@ -136,11 +136,11 @@
     <rPh sb="62" eb="64">
       <t>シュウセイ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>ギミック</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>特殊ギミック以外のギミックを具体的な説明を更新した</t>
@@ -153,7 +153,7 @@
     <rPh sb="21" eb="23">
       <t>コウシン</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>操作仕様を記入した</t>
@@ -163,7 +163,7 @@
     <rPh sb="5" eb="7">
       <t>キニュウ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>特殊ギミック以外のギミックをざっと記入した</t>
@@ -176,22 +176,22 @@
     <rPh sb="17" eb="19">
       <t>キニュウ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>ギミック</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>ギミックをざっと分類する</t>
     <rPh sb="8" eb="10">
       <t>ブンルイ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>２、カメラワーク</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>プレイヤーがマップの端にいる時、カメラがマップの外へいかない。</t>
@@ -204,7 +204,7 @@
     <rPh sb="24" eb="25">
       <t>ソト</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>１、基本処理</t>
@@ -214,62 +214,7 @@
     <rPh sb="4" eb="6">
       <t>ショリ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>２、画面がマップの端の外へ行く処理</t>
-    <rPh sb="2" eb="4">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ハシ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ソト</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ショリ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>カメラが基本的にプレイヤーを中心に移動する。</t>
-    <rPh sb="4" eb="7">
-      <t>キホンテキ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>チュウシン</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>イドウ</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>カメラの転向がない。</t>
-    <rPh sb="4" eb="6">
-      <t>テンコウ</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>上からプレイヤーをフォーカスするが、角度が90°にする。（角度要検討）</t>
-    <rPh sb="0" eb="1">
-      <t>ウエ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>カクド</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>カクド</t>
-    </rPh>
-    <rPh sb="31" eb="34">
-      <t>ヨウケントウ</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>図のように、マックの端にいる時、一時カメラがプレイヤーを中心にしない。</t>
@@ -288,11 +233,11 @@
     <rPh sb="28" eb="30">
       <t>チュウシン</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>カメラワーク</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>カメラワークの「基本処理」「画面がマップの端の外へ行く処理」</t>
@@ -301,6 +246,120 @@
     </rPh>
     <rPh sb="10" eb="12">
       <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>２、画面がマップの端の外へ行く処理(廃棄)</t>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ハシ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ソト</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ハイキ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>ゲームはステージ制に変更して、各ステージは博物館の一部分である。</t>
+    <rPh sb="8" eb="9">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="21" eb="24">
+      <t>ハクブツカン</t>
+    </rPh>
+    <rPh sb="25" eb="28">
+      <t>イチブブン</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>各ステージの全体を見えるように、カメラと地面の距離（高さ）を調整する。</t>
+    <rPh sb="0" eb="1">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ゼンタイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ジメン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>キョリ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>チョウセイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>つまり、オブジェクトの大きさはステージごとに違うことがある。</t>
+    <rPh sb="11" eb="12">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>チガ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>カメラの転向がない。固定する。</t>
+    <rPh sb="4" eb="6">
+      <t>テンコウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>コテイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>上から見る視点で、カメラの向きと地面の角度を90°にする。（角度要検討）</t>
+    <rPh sb="0" eb="1">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シテン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ジメン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>カクド</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>カクド</t>
+    </rPh>
+    <rPh sb="32" eb="35">
+      <t>ヨウケントウ</t>
     </rPh>
     <phoneticPr fontId="8"/>
   </si>
@@ -309,12 +368,20 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -492,72 +559,75 @@
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="17">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-  </cellStyleXfs>
-  <cellXfs count="16">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="5">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="5">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -587,15 +657,78 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>205740</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>104580</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="正方形/長方形 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DB2E380-9D35-4034-8F71-737D0BBE22FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7033260" y="1120140"/>
+          <a:ext cx="1811460" cy="1013460"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800" b="1"/>
+            <a:t>ステージ全体</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>28</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>40</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -652,81 +785,6 @@
             </a:rPr>
             <a:t>マップ</a:t>
           </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="楕円 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7848600" y="1562100"/>
-          <a:ext cx="285750" cy="285750"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFF00"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent2">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="b"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>p</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1000,133 +1058,64 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>45</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:colOff>216168</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>134500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>49</xdr:col>
-      <xdr:colOff>147037</xdr:colOff>
+      <xdr:colOff>20211</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>5723</xdr:rowOff>
     </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="11" name="グループ化 10">
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="テキスト ボックス 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="10706100" y="2190750"/>
-          <a:ext cx="1015717" cy="390525"/>
-          <a:chOff x="10791825" y="2276475"/>
-          <a:chExt cx="1023337" cy="409575"/>
+          <a:off x="10846068" y="2191900"/>
+          <a:ext cx="748923" cy="328423"/>
         </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="9" name="円柱 8">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="10791825" y="2276475"/>
-            <a:ext cx="219075" cy="409575"/>
-          </a:xfrm>
-          <a:prstGeom prst="can">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-          <a:ln w="19050"/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="10" name="テキスト ボックス 9">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="10925175" y="2333625"/>
-            <a:ext cx="889987" cy="328423"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-            <a:spAutoFit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>プレイヤー</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ステージ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -1276,7 +1265,6 @@
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="6" idx="3"/>
-          <a:endCxn id="9" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1443,13 +1431,13 @@
     <xdr:from>
       <xdr:col>29</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1518,13 +1506,13 @@
     <xdr:from>
       <xdr:col>28</xdr:col>
       <xdr:colOff>171451</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>159388</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
       <xdr:colOff>232762</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>109348</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -1540,7 +1528,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6785611" y="5188588"/>
+          <a:off x="6785611" y="5874388"/>
           <a:ext cx="1951071" cy="1321560"/>
           <a:chOff x="7058026" y="1159513"/>
           <a:chExt cx="1966311" cy="1378710"/>
@@ -1652,13 +1640,13 @@
     <xdr:from>
       <xdr:col>43</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>55</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1724,13 +1712,13 @@
     <xdr:from>
       <xdr:col>49</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>50</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1799,13 +1787,13 @@
     <xdr:from>
       <xdr:col>46</xdr:col>
       <xdr:colOff>38101</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>6988</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>54</xdr:col>
       <xdr:colOff>99412</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>195073</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -1821,7 +1809,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10904221" y="4578988"/>
+          <a:off x="10904221" y="5264788"/>
           <a:ext cx="1951071" cy="1331085"/>
           <a:chOff x="7058026" y="1159513"/>
           <a:chExt cx="1966311" cy="1378710"/>
@@ -1933,13 +1921,13 @@
     <xdr:from>
       <xdr:col>33</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>40</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2004,13 +1992,13 @@
     <xdr:from>
       <xdr:col>48</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>55</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2065,6 +2053,69 @@
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>マップの端にいない時</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>220980</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="正方形/長方形 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{760E2AD4-18E7-4C3C-917C-09A43FB1849F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7109460" y="4792980"/>
+          <a:ext cx="5524500" cy="998220"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1"/>
+            <a:t>廃棄</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2351,20 +2402,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:69" x14ac:dyDescent="0.45">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
@@ -2424,18 +2475,18 @@
       <c r="BQ1" s="1"/>
     </row>
     <row r="2" spans="1:69" x14ac:dyDescent="0.45">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
@@ -2496,657 +2547,678 @@
     </row>
     <row r="3" spans="1:69" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="4" spans="1:69" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="7" t="s">
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
-      <c r="V4" s="8"/>
-      <c r="W4" s="8"/>
-      <c r="X4" s="8"/>
-      <c r="Y4" s="8"/>
-      <c r="Z4" s="8"/>
-      <c r="AA4" s="8"/>
-      <c r="AB4" s="8"/>
-      <c r="AC4" s="8"/>
-      <c r="AD4" s="8"/>
-      <c r="AE4" s="8"/>
-      <c r="AF4" s="8"/>
-      <c r="AG4" s="8"/>
-      <c r="AH4" s="8"/>
-      <c r="AI4" s="8"/>
-      <c r="AJ4" s="8"/>
-      <c r="AK4" s="8"/>
-      <c r="AL4" s="8"/>
-      <c r="AM4" s="8"/>
-      <c r="AN4" s="8"/>
-      <c r="AO4" s="8"/>
-      <c r="AP4" s="8"/>
-      <c r="AQ4" s="8"/>
-      <c r="AR4" s="8"/>
-      <c r="AS4" s="8"/>
-      <c r="AT4" s="8"/>
-      <c r="AU4" s="8"/>
-      <c r="AV4" s="8"/>
-      <c r="AW4" s="8"/>
-      <c r="AX4" s="8"/>
-      <c r="AY4" s="8"/>
-      <c r="AZ4" s="9"/>
-      <c r="BA4" s="7" t="s">
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
+      <c r="W4" s="10"/>
+      <c r="X4" s="10"/>
+      <c r="Y4" s="10"/>
+      <c r="Z4" s="10"/>
+      <c r="AA4" s="10"/>
+      <c r="AB4" s="10"/>
+      <c r="AC4" s="10"/>
+      <c r="AD4" s="10"/>
+      <c r="AE4" s="10"/>
+      <c r="AF4" s="10"/>
+      <c r="AG4" s="10"/>
+      <c r="AH4" s="10"/>
+      <c r="AI4" s="10"/>
+      <c r="AJ4" s="10"/>
+      <c r="AK4" s="10"/>
+      <c r="AL4" s="10"/>
+      <c r="AM4" s="10"/>
+      <c r="AN4" s="10"/>
+      <c r="AO4" s="10"/>
+      <c r="AP4" s="10"/>
+      <c r="AQ4" s="10"/>
+      <c r="AR4" s="10"/>
+      <c r="AS4" s="10"/>
+      <c r="AT4" s="10"/>
+      <c r="AU4" s="10"/>
+      <c r="AV4" s="10"/>
+      <c r="AW4" s="10"/>
+      <c r="AX4" s="10"/>
+      <c r="AY4" s="10"/>
+      <c r="AZ4" s="11"/>
+      <c r="BA4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="BB4" s="8"/>
-      <c r="BC4" s="8"/>
-      <c r="BD4" s="8"/>
-      <c r="BE4" s="8"/>
-      <c r="BF4" s="8"/>
-      <c r="BG4" s="9"/>
+      <c r="BB4" s="10"/>
+      <c r="BC4" s="10"/>
+      <c r="BD4" s="10"/>
+      <c r="BE4" s="10"/>
+      <c r="BF4" s="10"/>
+      <c r="BG4" s="11"/>
     </row>
     <row r="5" spans="1:69" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C5" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9"/>
+        <v>22</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="11"/>
       <c r="G5" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="8"/>
-      <c r="T5" s="8"/>
-      <c r="U5" s="8"/>
-      <c r="V5" s="8"/>
-      <c r="W5" s="8"/>
-      <c r="X5" s="8"/>
-      <c r="Y5" s="8"/>
-      <c r="Z5" s="8"/>
-      <c r="AA5" s="8"/>
-      <c r="AB5" s="8"/>
-      <c r="AC5" s="8"/>
-      <c r="AD5" s="8"/>
-      <c r="AE5" s="8"/>
-      <c r="AF5" s="8"/>
-      <c r="AG5" s="8"/>
-      <c r="AH5" s="8"/>
-      <c r="AI5" s="8"/>
-      <c r="AJ5" s="8"/>
-      <c r="AK5" s="8"/>
-      <c r="AL5" s="8"/>
-      <c r="AM5" s="8"/>
-      <c r="AN5" s="8"/>
-      <c r="AO5" s="8"/>
-      <c r="AP5" s="8"/>
-      <c r="AQ5" s="8"/>
-      <c r="AR5" s="8"/>
-      <c r="AS5" s="8"/>
-      <c r="AT5" s="8"/>
-      <c r="AU5" s="8"/>
-      <c r="AV5" s="8"/>
-      <c r="AW5" s="8"/>
-      <c r="AX5" s="8"/>
-      <c r="AY5" s="8"/>
-      <c r="AZ5" s="9"/>
-      <c r="BA5" s="10">
+        <v>23</v>
+      </c>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="10"/>
+      <c r="W5" s="10"/>
+      <c r="X5" s="10"/>
+      <c r="Y5" s="10"/>
+      <c r="Z5" s="10"/>
+      <c r="AA5" s="10"/>
+      <c r="AB5" s="10"/>
+      <c r="AC5" s="10"/>
+      <c r="AD5" s="10"/>
+      <c r="AE5" s="10"/>
+      <c r="AF5" s="10"/>
+      <c r="AG5" s="10"/>
+      <c r="AH5" s="10"/>
+      <c r="AI5" s="10"/>
+      <c r="AJ5" s="10"/>
+      <c r="AK5" s="10"/>
+      <c r="AL5" s="10"/>
+      <c r="AM5" s="10"/>
+      <c r="AN5" s="10"/>
+      <c r="AO5" s="10"/>
+      <c r="AP5" s="10"/>
+      <c r="AQ5" s="10"/>
+      <c r="AR5" s="10"/>
+      <c r="AS5" s="10"/>
+      <c r="AT5" s="10"/>
+      <c r="AU5" s="10"/>
+      <c r="AV5" s="10"/>
+      <c r="AW5" s="10"/>
+      <c r="AX5" s="10"/>
+      <c r="AY5" s="10"/>
+      <c r="AZ5" s="11"/>
+      <c r="BA5" s="12">
         <v>43619</v>
       </c>
-      <c r="BB5" s="8"/>
-      <c r="BC5" s="8"/>
-      <c r="BD5" s="8"/>
-      <c r="BE5" s="8"/>
-      <c r="BF5" s="8"/>
-      <c r="BG5" s="9"/>
+      <c r="BB5" s="10"/>
+      <c r="BC5" s="10"/>
+      <c r="BD5" s="10"/>
+      <c r="BE5" s="10"/>
+      <c r="BF5" s="10"/>
+      <c r="BG5" s="11"/>
     </row>
     <row r="6" spans="1:69" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="7" t="s">
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8"/>
-      <c r="U6" s="8"/>
-      <c r="V6" s="8"/>
-      <c r="W6" s="8"/>
-      <c r="X6" s="8"/>
-      <c r="Y6" s="8"/>
-      <c r="Z6" s="8"/>
-      <c r="AA6" s="8"/>
-      <c r="AB6" s="8"/>
-      <c r="AC6" s="8"/>
-      <c r="AD6" s="8"/>
-      <c r="AE6" s="8"/>
-      <c r="AF6" s="8"/>
-      <c r="AG6" s="8"/>
-      <c r="AH6" s="8"/>
-      <c r="AI6" s="8"/>
-      <c r="AJ6" s="8"/>
-      <c r="AK6" s="8"/>
-      <c r="AL6" s="8"/>
-      <c r="AM6" s="8"/>
-      <c r="AN6" s="8"/>
-      <c r="AO6" s="8"/>
-      <c r="AP6" s="8"/>
-      <c r="AQ6" s="8"/>
-      <c r="AR6" s="8"/>
-      <c r="AS6" s="8"/>
-      <c r="AT6" s="8"/>
-      <c r="AU6" s="8"/>
-      <c r="AV6" s="8"/>
-      <c r="AW6" s="8"/>
-      <c r="AX6" s="8"/>
-      <c r="AY6" s="8"/>
-      <c r="AZ6" s="9"/>
-      <c r="BA6" s="10">
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="10"/>
+      <c r="W6" s="10"/>
+      <c r="X6" s="10"/>
+      <c r="Y6" s="10"/>
+      <c r="Z6" s="10"/>
+      <c r="AA6" s="10"/>
+      <c r="AB6" s="10"/>
+      <c r="AC6" s="10"/>
+      <c r="AD6" s="10"/>
+      <c r="AE6" s="10"/>
+      <c r="AF6" s="10"/>
+      <c r="AG6" s="10"/>
+      <c r="AH6" s="10"/>
+      <c r="AI6" s="10"/>
+      <c r="AJ6" s="10"/>
+      <c r="AK6" s="10"/>
+      <c r="AL6" s="10"/>
+      <c r="AM6" s="10"/>
+      <c r="AN6" s="10"/>
+      <c r="AO6" s="10"/>
+      <c r="AP6" s="10"/>
+      <c r="AQ6" s="10"/>
+      <c r="AR6" s="10"/>
+      <c r="AS6" s="10"/>
+      <c r="AT6" s="10"/>
+      <c r="AU6" s="10"/>
+      <c r="AV6" s="10"/>
+      <c r="AW6" s="10"/>
+      <c r="AX6" s="10"/>
+      <c r="AY6" s="10"/>
+      <c r="AZ6" s="11"/>
+      <c r="BA6" s="12">
         <v>43597</v>
       </c>
-      <c r="BB6" s="8"/>
-      <c r="BC6" s="8"/>
-      <c r="BD6" s="8"/>
-      <c r="BE6" s="8"/>
-      <c r="BF6" s="8"/>
-      <c r="BG6" s="9"/>
+      <c r="BB6" s="10"/>
+      <c r="BC6" s="10"/>
+      <c r="BD6" s="10"/>
+      <c r="BE6" s="10"/>
+      <c r="BF6" s="10"/>
+      <c r="BG6" s="11"/>
     </row>
     <row r="7" spans="1:69" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="7" t="s">
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8"/>
-      <c r="S7" s="8"/>
-      <c r="T7" s="8"/>
-      <c r="U7" s="8"/>
-      <c r="V7" s="8"/>
-      <c r="W7" s="8"/>
-      <c r="X7" s="8"/>
-      <c r="Y7" s="8"/>
-      <c r="Z7" s="8"/>
-      <c r="AA7" s="8"/>
-      <c r="AB7" s="8"/>
-      <c r="AC7" s="8"/>
-      <c r="AD7" s="8"/>
-      <c r="AE7" s="8"/>
-      <c r="AF7" s="8"/>
-      <c r="AG7" s="8"/>
-      <c r="AH7" s="8"/>
-      <c r="AI7" s="8"/>
-      <c r="AJ7" s="8"/>
-      <c r="AK7" s="8"/>
-      <c r="AL7" s="8"/>
-      <c r="AM7" s="8"/>
-      <c r="AN7" s="8"/>
-      <c r="AO7" s="8"/>
-      <c r="AP7" s="8"/>
-      <c r="AQ7" s="8"/>
-      <c r="AR7" s="8"/>
-      <c r="AS7" s="8"/>
-      <c r="AT7" s="8"/>
-      <c r="AU7" s="8"/>
-      <c r="AV7" s="8"/>
-      <c r="AW7" s="8"/>
-      <c r="AX7" s="8"/>
-      <c r="AY7" s="8"/>
-      <c r="AZ7" s="9"/>
-      <c r="BA7" s="10">
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="10"/>
+      <c r="V7" s="10"/>
+      <c r="W7" s="10"/>
+      <c r="X7" s="10"/>
+      <c r="Y7" s="10"/>
+      <c r="Z7" s="10"/>
+      <c r="AA7" s="10"/>
+      <c r="AB7" s="10"/>
+      <c r="AC7" s="10"/>
+      <c r="AD7" s="10"/>
+      <c r="AE7" s="10"/>
+      <c r="AF7" s="10"/>
+      <c r="AG7" s="10"/>
+      <c r="AH7" s="10"/>
+      <c r="AI7" s="10"/>
+      <c r="AJ7" s="10"/>
+      <c r="AK7" s="10"/>
+      <c r="AL7" s="10"/>
+      <c r="AM7" s="10"/>
+      <c r="AN7" s="10"/>
+      <c r="AO7" s="10"/>
+      <c r="AP7" s="10"/>
+      <c r="AQ7" s="10"/>
+      <c r="AR7" s="10"/>
+      <c r="AS7" s="10"/>
+      <c r="AT7" s="10"/>
+      <c r="AU7" s="10"/>
+      <c r="AV7" s="10"/>
+      <c r="AW7" s="10"/>
+      <c r="AX7" s="10"/>
+      <c r="AY7" s="10"/>
+      <c r="AZ7" s="11"/>
+      <c r="BA7" s="12">
         <v>43597</v>
       </c>
-      <c r="BB7" s="8"/>
-      <c r="BC7" s="8"/>
-      <c r="BD7" s="8"/>
-      <c r="BE7" s="8"/>
-      <c r="BF7" s="8"/>
-      <c r="BG7" s="9"/>
+      <c r="BB7" s="10"/>
+      <c r="BC7" s="10"/>
+      <c r="BD7" s="10"/>
+      <c r="BE7" s="10"/>
+      <c r="BF7" s="10"/>
+      <c r="BG7" s="11"/>
     </row>
     <row r="8" spans="1:69" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="7" t="s">
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="8"/>
-      <c r="T8" s="8"/>
-      <c r="U8" s="8"/>
-      <c r="V8" s="8"/>
-      <c r="W8" s="8"/>
-      <c r="X8" s="8"/>
-      <c r="Y8" s="8"/>
-      <c r="Z8" s="8"/>
-      <c r="AA8" s="8"/>
-      <c r="AB8" s="8"/>
-      <c r="AC8" s="8"/>
-      <c r="AD8" s="8"/>
-      <c r="AE8" s="8"/>
-      <c r="AF8" s="8"/>
-      <c r="AG8" s="8"/>
-      <c r="AH8" s="8"/>
-      <c r="AI8" s="8"/>
-      <c r="AJ8" s="8"/>
-      <c r="AK8" s="8"/>
-      <c r="AL8" s="8"/>
-      <c r="AM8" s="8"/>
-      <c r="AN8" s="8"/>
-      <c r="AO8" s="8"/>
-      <c r="AP8" s="8"/>
-      <c r="AQ8" s="8"/>
-      <c r="AR8" s="8"/>
-      <c r="AS8" s="8"/>
-      <c r="AT8" s="8"/>
-      <c r="AU8" s="8"/>
-      <c r="AV8" s="8"/>
-      <c r="AW8" s="8"/>
-      <c r="AX8" s="8"/>
-      <c r="AY8" s="8"/>
-      <c r="AZ8" s="9"/>
-      <c r="BA8" s="10">
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="10"/>
+      <c r="W8" s="10"/>
+      <c r="X8" s="10"/>
+      <c r="Y8" s="10"/>
+      <c r="Z8" s="10"/>
+      <c r="AA8" s="10"/>
+      <c r="AB8" s="10"/>
+      <c r="AC8" s="10"/>
+      <c r="AD8" s="10"/>
+      <c r="AE8" s="10"/>
+      <c r="AF8" s="10"/>
+      <c r="AG8" s="10"/>
+      <c r="AH8" s="10"/>
+      <c r="AI8" s="10"/>
+      <c r="AJ8" s="10"/>
+      <c r="AK8" s="10"/>
+      <c r="AL8" s="10"/>
+      <c r="AM8" s="10"/>
+      <c r="AN8" s="10"/>
+      <c r="AO8" s="10"/>
+      <c r="AP8" s="10"/>
+      <c r="AQ8" s="10"/>
+      <c r="AR8" s="10"/>
+      <c r="AS8" s="10"/>
+      <c r="AT8" s="10"/>
+      <c r="AU8" s="10"/>
+      <c r="AV8" s="10"/>
+      <c r="AW8" s="10"/>
+      <c r="AX8" s="10"/>
+      <c r="AY8" s="10"/>
+      <c r="AZ8" s="11"/>
+      <c r="BA8" s="12">
         <v>43595</v>
       </c>
-      <c r="BB8" s="8"/>
-      <c r="BC8" s="8"/>
-      <c r="BD8" s="8"/>
-      <c r="BE8" s="8"/>
-      <c r="BF8" s="8"/>
-      <c r="BG8" s="9"/>
+      <c r="BB8" s="10"/>
+      <c r="BC8" s="10"/>
+      <c r="BD8" s="10"/>
+      <c r="BE8" s="10"/>
+      <c r="BF8" s="10"/>
+      <c r="BG8" s="11"/>
     </row>
     <row r="9" spans="1:69" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="7" t="s">
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="8"/>
-      <c r="U9" s="8"/>
-      <c r="V9" s="8"/>
-      <c r="W9" s="8"/>
-      <c r="X9" s="8"/>
-      <c r="Y9" s="8"/>
-      <c r="Z9" s="8"/>
-      <c r="AA9" s="8"/>
-      <c r="AB9" s="8"/>
-      <c r="AC9" s="8"/>
-      <c r="AD9" s="8"/>
-      <c r="AE9" s="8"/>
-      <c r="AF9" s="8"/>
-      <c r="AG9" s="8"/>
-      <c r="AH9" s="8"/>
-      <c r="AI9" s="8"/>
-      <c r="AJ9" s="8"/>
-      <c r="AK9" s="8"/>
-      <c r="AL9" s="8"/>
-      <c r="AM9" s="8"/>
-      <c r="AN9" s="8"/>
-      <c r="AO9" s="8"/>
-      <c r="AP9" s="8"/>
-      <c r="AQ9" s="8"/>
-      <c r="AR9" s="8"/>
-      <c r="AS9" s="8"/>
-      <c r="AT9" s="8"/>
-      <c r="AU9" s="8"/>
-      <c r="AV9" s="8"/>
-      <c r="AW9" s="8"/>
-      <c r="AX9" s="8"/>
-      <c r="AY9" s="8"/>
-      <c r="AZ9" s="9"/>
-      <c r="BA9" s="10">
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="10"/>
+      <c r="W9" s="10"/>
+      <c r="X9" s="10"/>
+      <c r="Y9" s="10"/>
+      <c r="Z9" s="10"/>
+      <c r="AA9" s="10"/>
+      <c r="AB9" s="10"/>
+      <c r="AC9" s="10"/>
+      <c r="AD9" s="10"/>
+      <c r="AE9" s="10"/>
+      <c r="AF9" s="10"/>
+      <c r="AG9" s="10"/>
+      <c r="AH9" s="10"/>
+      <c r="AI9" s="10"/>
+      <c r="AJ9" s="10"/>
+      <c r="AK9" s="10"/>
+      <c r="AL9" s="10"/>
+      <c r="AM9" s="10"/>
+      <c r="AN9" s="10"/>
+      <c r="AO9" s="10"/>
+      <c r="AP9" s="10"/>
+      <c r="AQ9" s="10"/>
+      <c r="AR9" s="10"/>
+      <c r="AS9" s="10"/>
+      <c r="AT9" s="10"/>
+      <c r="AU9" s="10"/>
+      <c r="AV9" s="10"/>
+      <c r="AW9" s="10"/>
+      <c r="AX9" s="10"/>
+      <c r="AY9" s="10"/>
+      <c r="AZ9" s="11"/>
+      <c r="BA9" s="12">
         <v>43595</v>
       </c>
-      <c r="BB9" s="8"/>
-      <c r="BC9" s="8"/>
-      <c r="BD9" s="8"/>
-      <c r="BE9" s="8"/>
-      <c r="BF9" s="8"/>
-      <c r="BG9" s="9"/>
+      <c r="BB9" s="10"/>
+      <c r="BC9" s="10"/>
+      <c r="BD9" s="10"/>
+      <c r="BE9" s="10"/>
+      <c r="BF9" s="10"/>
+      <c r="BG9" s="11"/>
     </row>
     <row r="10" spans="1:69" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="7" t="s">
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="8"/>
-      <c r="T10" s="8"/>
-      <c r="U10" s="8"/>
-      <c r="V10" s="8"/>
-      <c r="W10" s="8"/>
-      <c r="X10" s="8"/>
-      <c r="Y10" s="8"/>
-      <c r="Z10" s="8"/>
-      <c r="AA10" s="8"/>
-      <c r="AB10" s="8"/>
-      <c r="AC10" s="8"/>
-      <c r="AD10" s="8"/>
-      <c r="AE10" s="8"/>
-      <c r="AF10" s="8"/>
-      <c r="AG10" s="8"/>
-      <c r="AH10" s="8"/>
-      <c r="AI10" s="8"/>
-      <c r="AJ10" s="8"/>
-      <c r="AK10" s="8"/>
-      <c r="AL10" s="8"/>
-      <c r="AM10" s="8"/>
-      <c r="AN10" s="8"/>
-      <c r="AO10" s="8"/>
-      <c r="AP10" s="8"/>
-      <c r="AQ10" s="8"/>
-      <c r="AR10" s="8"/>
-      <c r="AS10" s="8"/>
-      <c r="AT10" s="8"/>
-      <c r="AU10" s="8"/>
-      <c r="AV10" s="8"/>
-      <c r="AW10" s="8"/>
-      <c r="AX10" s="8"/>
-      <c r="AY10" s="8"/>
-      <c r="AZ10" s="9"/>
-      <c r="BA10" s="10">
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="10"/>
+      <c r="W10" s="10"/>
+      <c r="X10" s="10"/>
+      <c r="Y10" s="10"/>
+      <c r="Z10" s="10"/>
+      <c r="AA10" s="10"/>
+      <c r="AB10" s="10"/>
+      <c r="AC10" s="10"/>
+      <c r="AD10" s="10"/>
+      <c r="AE10" s="10"/>
+      <c r="AF10" s="10"/>
+      <c r="AG10" s="10"/>
+      <c r="AH10" s="10"/>
+      <c r="AI10" s="10"/>
+      <c r="AJ10" s="10"/>
+      <c r="AK10" s="10"/>
+      <c r="AL10" s="10"/>
+      <c r="AM10" s="10"/>
+      <c r="AN10" s="10"/>
+      <c r="AO10" s="10"/>
+      <c r="AP10" s="10"/>
+      <c r="AQ10" s="10"/>
+      <c r="AR10" s="10"/>
+      <c r="AS10" s="10"/>
+      <c r="AT10" s="10"/>
+      <c r="AU10" s="10"/>
+      <c r="AV10" s="10"/>
+      <c r="AW10" s="10"/>
+      <c r="AX10" s="10"/>
+      <c r="AY10" s="10"/>
+      <c r="AZ10" s="11"/>
+      <c r="BA10" s="12">
         <v>43593</v>
       </c>
-      <c r="BB10" s="8"/>
-      <c r="BC10" s="8"/>
-      <c r="BD10" s="8"/>
-      <c r="BE10" s="8"/>
-      <c r="BF10" s="8"/>
-      <c r="BG10" s="9"/>
+      <c r="BB10" s="10"/>
+      <c r="BC10" s="10"/>
+      <c r="BD10" s="10"/>
+      <c r="BE10" s="10"/>
+      <c r="BF10" s="10"/>
+      <c r="BG10" s="11"/>
     </row>
     <row r="11" spans="1:69" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="7" t="s">
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="8"/>
-      <c r="S11" s="8"/>
-      <c r="T11" s="8"/>
-      <c r="U11" s="8"/>
-      <c r="V11" s="8"/>
-      <c r="W11" s="8"/>
-      <c r="X11" s="8"/>
-      <c r="Y11" s="8"/>
-      <c r="Z11" s="8"/>
-      <c r="AA11" s="8"/>
-      <c r="AB11" s="8"/>
-      <c r="AC11" s="8"/>
-      <c r="AD11" s="8"/>
-      <c r="AE11" s="8"/>
-      <c r="AF11" s="8"/>
-      <c r="AG11" s="8"/>
-      <c r="AH11" s="8"/>
-      <c r="AI11" s="8"/>
-      <c r="AJ11" s="8"/>
-      <c r="AK11" s="8"/>
-      <c r="AL11" s="8"/>
-      <c r="AM11" s="8"/>
-      <c r="AN11" s="8"/>
-      <c r="AO11" s="8"/>
-      <c r="AP11" s="8"/>
-      <c r="AQ11" s="8"/>
-      <c r="AR11" s="8"/>
-      <c r="AS11" s="8"/>
-      <c r="AT11" s="8"/>
-      <c r="AU11" s="8"/>
-      <c r="AV11" s="8"/>
-      <c r="AW11" s="8"/>
-      <c r="AX11" s="8"/>
-      <c r="AY11" s="8"/>
-      <c r="AZ11" s="9"/>
-      <c r="BA11" s="10">
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="10"/>
+      <c r="V11" s="10"/>
+      <c r="W11" s="10"/>
+      <c r="X11" s="10"/>
+      <c r="Y11" s="10"/>
+      <c r="Z11" s="10"/>
+      <c r="AA11" s="10"/>
+      <c r="AB11" s="10"/>
+      <c r="AC11" s="10"/>
+      <c r="AD11" s="10"/>
+      <c r="AE11" s="10"/>
+      <c r="AF11" s="10"/>
+      <c r="AG11" s="10"/>
+      <c r="AH11" s="10"/>
+      <c r="AI11" s="10"/>
+      <c r="AJ11" s="10"/>
+      <c r="AK11" s="10"/>
+      <c r="AL11" s="10"/>
+      <c r="AM11" s="10"/>
+      <c r="AN11" s="10"/>
+      <c r="AO11" s="10"/>
+      <c r="AP11" s="10"/>
+      <c r="AQ11" s="10"/>
+      <c r="AR11" s="10"/>
+      <c r="AS11" s="10"/>
+      <c r="AT11" s="10"/>
+      <c r="AU11" s="10"/>
+      <c r="AV11" s="10"/>
+      <c r="AW11" s="10"/>
+      <c r="AX11" s="10"/>
+      <c r="AY11" s="10"/>
+      <c r="AZ11" s="11"/>
+      <c r="BA11" s="12">
         <v>43586</v>
       </c>
-      <c r="BB11" s="8"/>
-      <c r="BC11" s="8"/>
-      <c r="BD11" s="8"/>
-      <c r="BE11" s="8"/>
-      <c r="BF11" s="8"/>
-      <c r="BG11" s="9"/>
+      <c r="BB11" s="10"/>
+      <c r="BC11" s="10"/>
+      <c r="BD11" s="10"/>
+      <c r="BE11" s="10"/>
+      <c r="BF11" s="10"/>
+      <c r="BG11" s="11"/>
     </row>
     <row r="12" spans="1:69" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="7" t="s">
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="8"/>
-      <c r="T12" s="8"/>
-      <c r="U12" s="8"/>
-      <c r="V12" s="8"/>
-      <c r="W12" s="8"/>
-      <c r="X12" s="8"/>
-      <c r="Y12" s="8"/>
-      <c r="Z12" s="8"/>
-      <c r="AA12" s="8"/>
-      <c r="AB12" s="8"/>
-      <c r="AC12" s="8"/>
-      <c r="AD12" s="8"/>
-      <c r="AE12" s="8"/>
-      <c r="AF12" s="8"/>
-      <c r="AG12" s="8"/>
-      <c r="AH12" s="8"/>
-      <c r="AI12" s="8"/>
-      <c r="AJ12" s="8"/>
-      <c r="AK12" s="8"/>
-      <c r="AL12" s="8"/>
-      <c r="AM12" s="8"/>
-      <c r="AN12" s="8"/>
-      <c r="AO12" s="8"/>
-      <c r="AP12" s="8"/>
-      <c r="AQ12" s="8"/>
-      <c r="AR12" s="8"/>
-      <c r="AS12" s="8"/>
-      <c r="AT12" s="8"/>
-      <c r="AU12" s="8"/>
-      <c r="AV12" s="8"/>
-      <c r="AW12" s="8"/>
-      <c r="AX12" s="8"/>
-      <c r="AY12" s="8"/>
-      <c r="AZ12" s="9"/>
-      <c r="BA12" s="10">
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="10"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="10"/>
+      <c r="V12" s="10"/>
+      <c r="W12" s="10"/>
+      <c r="X12" s="10"/>
+      <c r="Y12" s="10"/>
+      <c r="Z12" s="10"/>
+      <c r="AA12" s="10"/>
+      <c r="AB12" s="10"/>
+      <c r="AC12" s="10"/>
+      <c r="AD12" s="10"/>
+      <c r="AE12" s="10"/>
+      <c r="AF12" s="10"/>
+      <c r="AG12" s="10"/>
+      <c r="AH12" s="10"/>
+      <c r="AI12" s="10"/>
+      <c r="AJ12" s="10"/>
+      <c r="AK12" s="10"/>
+      <c r="AL12" s="10"/>
+      <c r="AM12" s="10"/>
+      <c r="AN12" s="10"/>
+      <c r="AO12" s="10"/>
+      <c r="AP12" s="10"/>
+      <c r="AQ12" s="10"/>
+      <c r="AR12" s="10"/>
+      <c r="AS12" s="10"/>
+      <c r="AT12" s="10"/>
+      <c r="AU12" s="10"/>
+      <c r="AV12" s="10"/>
+      <c r="AW12" s="10"/>
+      <c r="AX12" s="10"/>
+      <c r="AY12" s="10"/>
+      <c r="AZ12" s="11"/>
+      <c r="BA12" s="12">
         <v>43586</v>
       </c>
-      <c r="BB12" s="8"/>
-      <c r="BC12" s="8"/>
-      <c r="BD12" s="8"/>
-      <c r="BE12" s="8"/>
-      <c r="BF12" s="8"/>
-      <c r="BG12" s="9"/>
+      <c r="BB12" s="10"/>
+      <c r="BC12" s="10"/>
+      <c r="BD12" s="10"/>
+      <c r="BE12" s="10"/>
+      <c r="BF12" s="10"/>
+      <c r="BG12" s="11"/>
     </row>
     <row r="13" spans="1:69" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="7" t="s">
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
-      <c r="R13" s="8"/>
-      <c r="S13" s="8"/>
-      <c r="T13" s="8"/>
-      <c r="U13" s="8"/>
-      <c r="V13" s="8"/>
-      <c r="W13" s="8"/>
-      <c r="X13" s="8"/>
-      <c r="Y13" s="8"/>
-      <c r="Z13" s="8"/>
-      <c r="AA13" s="8"/>
-      <c r="AB13" s="8"/>
-      <c r="AC13" s="8"/>
-      <c r="AD13" s="8"/>
-      <c r="AE13" s="8"/>
-      <c r="AF13" s="8"/>
-      <c r="AG13" s="8"/>
-      <c r="AH13" s="8"/>
-      <c r="AI13" s="8"/>
-      <c r="AJ13" s="8"/>
-      <c r="AK13" s="8"/>
-      <c r="AL13" s="8"/>
-      <c r="AM13" s="8"/>
-      <c r="AN13" s="8"/>
-      <c r="AO13" s="8"/>
-      <c r="AP13" s="8"/>
-      <c r="AQ13" s="8"/>
-      <c r="AR13" s="8"/>
-      <c r="AS13" s="8"/>
-      <c r="AT13" s="8"/>
-      <c r="AU13" s="8"/>
-      <c r="AV13" s="8"/>
-      <c r="AW13" s="8"/>
-      <c r="AX13" s="8"/>
-      <c r="AY13" s="8"/>
-      <c r="AZ13" s="9"/>
-      <c r="BA13" s="10">
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="10"/>
+      <c r="V13" s="10"/>
+      <c r="W13" s="10"/>
+      <c r="X13" s="10"/>
+      <c r="Y13" s="10"/>
+      <c r="Z13" s="10"/>
+      <c r="AA13" s="10"/>
+      <c r="AB13" s="10"/>
+      <c r="AC13" s="10"/>
+      <c r="AD13" s="10"/>
+      <c r="AE13" s="10"/>
+      <c r="AF13" s="10"/>
+      <c r="AG13" s="10"/>
+      <c r="AH13" s="10"/>
+      <c r="AI13" s="10"/>
+      <c r="AJ13" s="10"/>
+      <c r="AK13" s="10"/>
+      <c r="AL13" s="10"/>
+      <c r="AM13" s="10"/>
+      <c r="AN13" s="10"/>
+      <c r="AO13" s="10"/>
+      <c r="AP13" s="10"/>
+      <c r="AQ13" s="10"/>
+      <c r="AR13" s="10"/>
+      <c r="AS13" s="10"/>
+      <c r="AT13" s="10"/>
+      <c r="AU13" s="10"/>
+      <c r="AV13" s="10"/>
+      <c r="AW13" s="10"/>
+      <c r="AX13" s="10"/>
+      <c r="AY13" s="10"/>
+      <c r="AZ13" s="11"/>
+      <c r="BA13" s="12">
         <v>43584</v>
       </c>
-      <c r="BB13" s="8"/>
-      <c r="BC13" s="8"/>
-      <c r="BD13" s="8"/>
-      <c r="BE13" s="8"/>
-      <c r="BF13" s="8"/>
-      <c r="BG13" s="9"/>
+      <c r="BB13" s="10"/>
+      <c r="BC13" s="10"/>
+      <c r="BD13" s="10"/>
+      <c r="BE13" s="10"/>
+      <c r="BF13" s="10"/>
+      <c r="BG13" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="G13:AZ13"/>
+    <mergeCell ref="BA13:BG13"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="G11:AZ11"/>
+    <mergeCell ref="BA11:BG11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="G12:AZ12"/>
+    <mergeCell ref="BA12:BG12"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="G9:AZ9"/>
+    <mergeCell ref="BA9:BG9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="G10:AZ10"/>
+    <mergeCell ref="BA10:BG10"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:AZ7"/>
+    <mergeCell ref="BA7:BG7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G8:AZ8"/>
+    <mergeCell ref="BA8:BG8"/>
     <mergeCell ref="A1:L2"/>
     <mergeCell ref="C4:F4"/>
     <mergeCell ref="G4:AZ4"/>
@@ -3157,29 +3229,8 @@
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="G5:AZ5"/>
     <mergeCell ref="BA5:BG5"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:AZ7"/>
-    <mergeCell ref="BA7:BG7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="G8:AZ8"/>
-    <mergeCell ref="BA8:BG8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="G9:AZ9"/>
-    <mergeCell ref="BA9:BG9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="G10:AZ10"/>
-    <mergeCell ref="BA10:BG10"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="G13:AZ13"/>
-    <mergeCell ref="BA13:BG13"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="G11:AZ11"/>
-    <mergeCell ref="BA11:BG11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="G12:AZ12"/>
-    <mergeCell ref="BA12:BG12"/>
   </mergeCells>
-  <phoneticPr fontId="7"/>
+  <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -3187,10 +3238,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:BQ18"/>
+  <dimension ref="A1:BQ21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:BB4"/>
+      <selection activeCell="W12" sqref="W12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -3399,94 +3450,101 @@
       <c r="BB4" s="5"/>
     </row>
     <row r="6" spans="1:69" x14ac:dyDescent="0.45">
-      <c r="E6" s="6" t="s">
-        <v>22</v>
+      <c r="E6" s="16" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:69" x14ac:dyDescent="0.45">
-      <c r="E7" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:69" x14ac:dyDescent="0.45">
-      <c r="E8" s="6" t="s">
-        <v>24</v>
+      <c r="E7" s="16" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:69" x14ac:dyDescent="0.45">
-      <c r="E9" s="6"/>
+      <c r="E9" s="16" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="14" spans="1:69" x14ac:dyDescent="0.45">
-      <c r="C14" s="4" t="s">
+    <row r="10" spans="1:69" x14ac:dyDescent="0.45">
+      <c r="E10" s="16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:69" x14ac:dyDescent="0.45">
+      <c r="E11" s="16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="3:54" x14ac:dyDescent="0.45">
+      <c r="C17" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="5"/>
+      <c r="X17" s="5"/>
+      <c r="Y17" s="5"/>
+      <c r="Z17" s="5"/>
+      <c r="AA17" s="5"/>
+      <c r="AB17" s="5"/>
+      <c r="AC17" s="5"/>
+      <c r="AD17" s="5"/>
+      <c r="AE17" s="5"/>
+      <c r="AF17" s="5"/>
+      <c r="AG17" s="5"/>
+      <c r="AH17" s="5"/>
+      <c r="AI17" s="5"/>
+      <c r="AJ17" s="5"/>
+      <c r="AK17" s="5"/>
+      <c r="AL17" s="5"/>
+      <c r="AM17" s="5"/>
+      <c r="AN17" s="5"/>
+      <c r="AO17" s="5"/>
+      <c r="AP17" s="5"/>
+      <c r="AQ17" s="5"/>
+      <c r="AR17" s="5"/>
+      <c r="AS17" s="5"/>
+      <c r="AT17" s="5"/>
+      <c r="AU17" s="5"/>
+      <c r="AV17" s="5"/>
+      <c r="AW17" s="5"/>
+      <c r="AX17" s="5"/>
+      <c r="AY17" s="5"/>
+      <c r="AZ17" s="5"/>
+      <c r="BA17" s="5"/>
+      <c r="BB17" s="5"/>
+    </row>
+    <row r="19" spans="3:54" x14ac:dyDescent="0.45">
+      <c r="E19" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="3:54" x14ac:dyDescent="0.45">
+      <c r="E21" s="6" t="s">
         <v>21</v>
-      </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
-      <c r="V14" s="5"/>
-      <c r="W14" s="5"/>
-      <c r="X14" s="5"/>
-      <c r="Y14" s="5"/>
-      <c r="Z14" s="5"/>
-      <c r="AA14" s="5"/>
-      <c r="AB14" s="5"/>
-      <c r="AC14" s="5"/>
-      <c r="AD14" s="5"/>
-      <c r="AE14" s="5"/>
-      <c r="AF14" s="5"/>
-      <c r="AG14" s="5"/>
-      <c r="AH14" s="5"/>
-      <c r="AI14" s="5"/>
-      <c r="AJ14" s="5"/>
-      <c r="AK14" s="5"/>
-      <c r="AL14" s="5"/>
-      <c r="AM14" s="5"/>
-      <c r="AN14" s="5"/>
-      <c r="AO14" s="5"/>
-      <c r="AP14" s="5"/>
-      <c r="AQ14" s="5"/>
-      <c r="AR14" s="5"/>
-      <c r="AS14" s="5"/>
-      <c r="AT14" s="5"/>
-      <c r="AU14" s="5"/>
-      <c r="AV14" s="5"/>
-      <c r="AW14" s="5"/>
-      <c r="AX14" s="5"/>
-      <c r="AY14" s="5"/>
-      <c r="AZ14" s="5"/>
-      <c r="BA14" s="5"/>
-      <c r="BB14" s="5"/>
-    </row>
-    <row r="16" spans="1:69" x14ac:dyDescent="0.45">
-      <c r="E16" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.45">
-      <c r="E18" s="6" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:J2"/>
   </mergeCells>
-  <phoneticPr fontId="7"/>
+  <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
